--- a/templates/community/CEPLAS-data/strain_construction.xlsx
+++ b/templates/community/CEPLAS-data/strain_construction.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t_ori\Desktop\arcs\Swate-templates\templates\community\CEPLAS-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\CEPLAS-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A3B1ED8-7772-4F20-83CA-3C34711132A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797A7332-A827-4F61-9582-ABFC975606A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="1" xr2:uid="{9CA07CDD-55F3-4958-89B5-1513B1B8E27B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{9CA07CDD-55F3-4958-89B5-1513B1B8E27B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -390,8 +390,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -467,9 +467,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -507,7 +507,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -613,7 +613,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -755,7 +755,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -800,7 +800,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
@@ -914,7 +914,7 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
   </cols>
